--- a/天然气/data_input/JKM.xlsx
+++ b/天然气/data_input/JKM.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6877"/>
+  <dimension ref="A1:E6879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86196,6 +86196,36 @@
         <v>1.1612</v>
       </c>
     </row>
+    <row r="6878">
+      <c r="A6878" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B6878" t="inlineStr"/>
+      <c r="C6878" t="n">
+        <v>0.5449000000000001</v>
+      </c>
+      <c r="D6878" t="n">
+        <v>31.404</v>
+      </c>
+      <c r="E6878" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="6879">
+      <c r="A6879" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B6879" t="inlineStr"/>
+      <c r="C6879" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="D6879" t="n">
+        <v>31.605</v>
+      </c>
+      <c r="E6879" t="n">
+        <v>1.163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
